--- a/ASR-trait-coding.xlsx
+++ b/ASR-trait-coding.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emilytrudeau/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emilytrudeau/Documents/fungal-xygases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C3A4606-87A6-3C42-84FE-D9F92020173C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B20FAB-A11D-DC43-B3F4-348BFEEF5181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2840" yWindow="4980" windowWidth="27240" windowHeight="15940" xr2:uid="{65D5FEFE-0AA7-8548-B790-F0D03D21DD20}"/>
+    <workbookView xWindow="1560" yWindow="2060" windowWidth="27240" windowHeight="15940" xr2:uid="{65D5FEFE-0AA7-8548-B790-F0D03D21DD20}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -534,12 +534,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -563,8 +570,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -902,7 +910,7 @@
   <dimension ref="A1:D159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -911,16 +919,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>163</v>
       </c>
     </row>
